--- a/NLP Project - Results.xlsx
+++ b/NLP Project - Results.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omrimaoz/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2D67C5-22F5-7746-8019-9499C685EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="15960" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="BiLSTM" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet 2" sheetId="3" r:id="rId6"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="BiLSTM" sheetId="2" r:id="rId2"/>
+    <sheet name="DAN" sheetId="4" r:id="rId3"/>
+    <sheet name="Transformer" sheetId="3" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -66,17 +76,17 @@
     <t>Bigram-filter-extend</t>
   </si>
   <si>
-    <t>Sheet 2</t>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>DAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -93,19 +103,25 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,17 +177,29 @@
       </patternFill>
     </fill>
     <fill>
-      <gradientFill type="linear" degree="90">
+      <gradientFill degree="90">
         <stop position="0">
-          <color rgb="fffae236"/>
+          <color rgb="FFFAE236"/>
         </stop>
         <stop position="1">
-          <color rgb="ffff9300"/>
+          <color rgb="FFFF9300"/>
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -284,150 +312,241 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff56c1fe"/>
-      <rgbColor rgb="ffff968c"/>
-      <rgbColor rgb="fffff056"/>
-      <rgbColor rgb="ff88f94e"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF5E88B1"/>
+      <rgbColor rgb="FFEEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FF56C1FE"/>
+      <rgbColor rgb="FFFF968C"/>
+      <rgbColor rgb="FFFFF056"/>
+      <rgbColor rgb="FF88F94E"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -626,7 +745,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -645,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -675,7 +794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -701,7 +820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -727,7 +846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -753,7 +872,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -779,7 +898,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -805,7 +924,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -831,7 +950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -857,7 +976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -883,7 +1002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,9 +1015,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -915,7 +1040,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -934,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -960,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -986,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1038,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1064,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1090,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1116,7 +1241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1142,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1168,7 +1293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,9 +1306,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1197,7 +1328,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1216,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1246,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1272,7 +1403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1298,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,7 +1455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1350,7 +1481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1376,7 +1507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1402,7 +1533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1428,7 +1559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1454,7 +1585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1467,74 +1598,100 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="7" spans="2:4" ht="19" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+    <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="11" spans="2:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D14" s="41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1543,348 +1700,417 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'BiLSTM'!R2C1" tooltip="" display="BiLSTM"/>
-    <hyperlink ref="D12" location="'Sheet 2'!R2C1" tooltip="" display="Sheet 2"/>
+    <hyperlink ref="D10" location="'BiLSTM'!R2C1" display="BiLSTM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="DAN!A1" display="DAN" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" location="Transformer!A1" display="Transformer" xr:uid="{D4DF1C56-5A18-EB4B-897A-97D5CCAD8D84}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="29" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="29" customWidth="1"/>
+    <col min="6" max="10" width="16.33203125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="8">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="10">
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C3" s="9">
         <v>5000</v>
       </c>
-      <c r="C3" s="12">
+      <c r="D3" s="10">
         <v>1000</v>
       </c>
-      <c r="D3" s="12">
+      <c r="E3" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F3" s="10">
         <v>5000</v>
       </c>
-      <c r="E3" s="12">
+      <c r="G3" s="10">
         <v>1000</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="14">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15">
-        <v>0.674</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.575</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="B4" s="33"/>
+      <c r="C4" s="13">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
         <v>0.67</v>
       </c>
-      <c r="E4" s="17">
+      <c r="G4" s="15">
         <v>0.6</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="14">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="33"/>
+      <c r="C5" s="17">
         <v>0.64</v>
       </c>
-      <c r="C5" s="20">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19">
         <v>0.65</v>
       </c>
-      <c r="E5" s="21">
+      <c r="G5" s="19">
         <v>0.59</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="14">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="14">
+      <c r="B6" s="33"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="14">
+      <c r="B7" s="33"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0.55</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="B8" s="33"/>
+      <c r="C8" s="21">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="G8" s="19">
         <v>0.6</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="14">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="33"/>
+      <c r="C9" s="24">
         <v>0.89</v>
       </c>
-      <c r="C9" s="27">
+      <c r="D9" s="25">
         <v>0.89</v>
       </c>
-      <c r="D9" s="25">
+      <c r="E9" s="25"/>
+      <c r="F9" s="23">
         <v>0.878</v>
       </c>
-      <c r="E9" s="25">
-        <v>0.905</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="14">
+      <c r="G9" s="23">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="33"/>
+      <c r="C10" s="17">
         <v>0.61</v>
       </c>
-      <c r="C10" s="28">
+      <c r="D10" s="26">
         <v>0.59</v>
       </c>
-      <c r="D10" s="29">
+      <c r="E10" s="26"/>
+      <c r="F10" s="27">
         <v>0.63</v>
       </c>
-      <c r="E10" s="24">
-        <v>0.57</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="14">
+      <c r="G10" s="22">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="33"/>
+      <c r="C11" s="17">
         <v>0.63</v>
       </c>
-      <c r="C11" s="20">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="28"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="28"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1892,107 +2118,464 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF448023-0860-5A44-8E56-CDE5E1939DAB}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="16.33203125" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F3" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="28"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="31" customWidth="1"/>
+    <col min="1" max="6" width="16.33203125" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F3" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="28"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/NLP Project - Results.xlsx
+++ b/NLP Project - Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omrimaoz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omrimaoz/pythonProject/University/NLP/NLP_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2D67C5-22F5-7746-8019-9499C685EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC0D93B-6AEA-424C-81F4-C0F53D7B8B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="15960" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13580" yWindow="700" windowWidth="13460" windowHeight="15300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -81,12 +81,18 @@
   <si>
     <t>DAN</t>
   </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -119,6 +125,18 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -160,46 +178,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="18"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="19"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color rgb="FFFAE236"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FFFF9300"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor auto="1"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -218,74 +232,27 @@
         <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
         <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="13"/>
       </right>
@@ -299,25 +266,36 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="13"/>
       </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color indexed="13"/>
-      </top>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
@@ -332,7 +310,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -351,77 +329,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -432,32 +425,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1619,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1630,11 +1605,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="7" spans="2:4" ht="19" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
@@ -1675,7 +1650,7 @@
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1691,7 +1666,7 @@
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1710,404 +1685,712 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="29" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="29" customWidth="1"/>
-    <col min="6" max="10" width="16.33203125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="16.33203125" style="5"/>
+    <col min="2" max="4" width="16.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="5" customWidth="1"/>
+    <col min="8" max="10" width="16.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="7" customWidth="1"/>
+    <col min="13" max="14" width="16.33203125" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38"/>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B4" s="39">
         <v>15000</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39">
         <v>5000</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39">
         <v>1000</v>
       </c>
-      <c r="E3" s="10">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39">
         <v>15000</v>
       </c>
-      <c r="F3" s="10">
+      <c r="I4" s="39"/>
+      <c r="J4" s="39">
         <v>5000</v>
       </c>
-      <c r="G3" s="10">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39">
         <v>1000</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="13">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
+      <c r="B5" s="20">
+        <v>0.751</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.749</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.76</v>
+      </c>
+      <c r="J5" s="29">
+        <v>0.51</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0.66</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="26">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.59</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0.63</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.61</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.45</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0.505</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0.54</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0.23</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0.31</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.31</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0.73</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.74</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.69</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0.59</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.61</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0.38</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0.45</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0.32</v>
+      </c>
+      <c r="M8" s="26">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.745</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="H9" s="40">
+        <v>4.93</v>
+      </c>
+      <c r="I9" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.51</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0.61</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="M9" s="27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="31">
+        <v>0.96</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.96</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0.96</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0.96</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.373</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.245</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.39</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.44</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.72</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.66</v>
+      </c>
+      <c r="E11" s="25">
         <v>0.67</v>
       </c>
-      <c r="G4" s="15">
+      <c r="F11" s="26">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G11" s="26">
         <v>0.6</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="17">
-        <v>0.64</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="H11" s="26">
+        <v>0.43</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.44</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.45</v>
+      </c>
+      <c r="K11" s="26">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19">
-        <v>0.65</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.59</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="21">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="L11" s="24">
+        <v>0.41</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0.62</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0.62</v>
+      </c>
+      <c r="F12" s="26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="24">
-        <v>0.89</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0.89</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="23">
-        <v>0.878</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="17">
-        <v>0.61</v>
-      </c>
-      <c r="D10" s="26">
-        <v>0.59</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27">
-        <v>0.63</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="17">
-        <v>0.63</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="16"/>
+      <c r="G12" s="26">
+        <v>0.54</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0.34</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -2119,226 +2402,700 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF448023-0860-5A44-8E56-CDE5E1939DAB}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="G3" zoomScale="110" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="16.33203125" style="29"/>
+    <col min="1" max="16384" width="16.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38"/>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B4" s="39">
         <v>15000</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39">
         <v>5000</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39">
         <v>1000</v>
       </c>
-      <c r="E3" s="10">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39">
         <v>15000</v>
       </c>
-      <c r="F3" s="10">
+      <c r="I4" s="39"/>
+      <c r="J4" s="39">
         <v>5000</v>
       </c>
-      <c r="G3" s="10">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="20">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.64</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0.78</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="24">
+        <v>0.628</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.626</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="24">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0.315</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0.309</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0.32</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="24">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.52</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0.377</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.216</v>
+      </c>
+      <c r="L8" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="24">
+        <v>0.622</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.621</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.64</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="L9" s="24">
+        <v>0.48</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="24">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.316</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="24">
+        <v>0.621</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.621</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.62</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0.621</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0.442</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.442</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0.44</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="B12" s="24">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0.378</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0.378</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2349,230 +3106,704 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="16.33203125" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="16.33203125" style="29"/>
+    <col min="1" max="6" width="16.33203125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38"/>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B4" s="39">
         <v>15000</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39">
         <v>5000</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39">
         <v>1000</v>
       </c>
-      <c r="E3" s="10">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39">
         <v>15000</v>
       </c>
-      <c r="F3" s="10">
+      <c r="I4" s="39"/>
+      <c r="J4" s="39">
         <v>5000</v>
       </c>
-      <c r="G3" s="10">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="20">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0.746</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="22">
+        <v>0.752</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0.48</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="22">
+        <v>0.751</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.753</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0.43</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0.44</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="M7" s="23">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="22">
+        <v>0.751</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0.66</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0.51</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0.64</v>
+      </c>
+      <c r="M8" s="23">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="22">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.754</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0.48</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0.68</v>
+      </c>
+      <c r="K9" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0.65</v>
+      </c>
+      <c r="M9" s="23">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="22">
+        <v>0.753</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.752</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0.44</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0.61</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="22">
+        <v>0.751</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.751</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0.79</v>
+      </c>
+      <c r="I11" s="23">
+        <v>5.8</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0.61</v>
+      </c>
+      <c r="M11" s="23">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="16"/>
+      <c r="B12" s="22">
+        <v>0.751</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.755</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.86</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0.77</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="M12" s="23">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
